--- a/gr_optimization/Input_Output/BuyflowValidation/Merchandising Input/CrepeErase/advanced-holiday-special.xlsx
+++ b/gr_optimization/Input_Output/BuyflowValidation/Merchandising Input/CrepeErase/advanced-holiday-special.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23706"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://guthyrenker.sharepoint.com/sites/ecommerce/Shared Documents/Merchandising Data Repo/CrepeErase/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="91" documentId="8_{02762DB6-BD61-4B3A-BEB1-F9E3CF885DEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{71F4E8C5-A7C7-4EB3-A071-767F7782B1CD}"/>
+  <xr:revisionPtr revIDLastSave="95" documentId="8_{02762DB6-BD61-4B3A-BEB1-F9E3CF885DEB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{31AF77C3-EF79-4242-BDBE-BC89A80D38B2}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="215">
   <si>
     <t>Vanity URL</t>
   </si>
@@ -61,6 +61,9 @@
     <t>Venue ID</t>
   </si>
   <si>
+    <t>Price Book ID</t>
+  </si>
+  <si>
     <t>Recommendation Type</t>
   </si>
   <si>
@@ -83,6 +86,9 @@
   </si>
   <si>
     <t>AH</t>
+  </si>
+  <si>
+    <t>PCSA39H</t>
   </si>
   <si>
     <t>Kit</t>
@@ -1227,6 +1233,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1235,24 +1259,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1597,10 +1603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H59"/>
+  <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1612,11 +1618,12 @@
     <col min="5" max="5" width="32.140625" style="20" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" style="20" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.140625" style="20"/>
-    <col min="8" max="8" width="21.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="20"/>
+    <col min="8" max="8" width="12.7109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.85546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1">
+    <row r="1" spans="1:9">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -1641,34 +1648,40 @@
       <c r="H1" s="18" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="25">
+        <v>15</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="25">
         <v>601</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" s="26"/>
       <c r="B3" s="27"/>
       <c r="C3" s="28"/>
@@ -1676,9 +1689,10 @@
       <c r="E3" s="23"/>
       <c r="F3" s="23"/>
       <c r="G3" s="24"/>
-      <c r="H3" s="25"/>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="H3" s="24"/>
+      <c r="I3" s="25"/>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="29"/>
       <c r="B4" s="27"/>
       <c r="C4" s="28"/>
@@ -1686,9 +1700,10 @@
       <c r="E4" s="23"/>
       <c r="F4" s="23"/>
       <c r="G4" s="24"/>
-      <c r="H4" s="25"/>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="H4" s="24"/>
+      <c r="I4" s="25"/>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="29"/>
       <c r="B5" s="28"/>
       <c r="C5" s="28"/>
@@ -1696,9 +1711,10 @@
       <c r="E5" s="28"/>
       <c r="F5" s="28"/>
       <c r="G5" s="30"/>
-      <c r="H5" s="31"/>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="H5" s="30"/>
+      <c r="I5" s="31"/>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="29"/>
       <c r="B6" s="28"/>
       <c r="C6" s="28"/>
@@ -1706,9 +1722,10 @@
       <c r="E6" s="28"/>
       <c r="F6" s="28"/>
       <c r="G6" s="30"/>
-      <c r="H6" s="31"/>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="H6" s="30"/>
+      <c r="I6" s="31"/>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="29"/>
       <c r="B7" s="28"/>
       <c r="C7" s="28"/>
@@ -1716,9 +1733,10 @@
       <c r="E7" s="28"/>
       <c r="F7" s="28"/>
       <c r="G7" s="30"/>
-      <c r="H7" s="31"/>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" thickBot="1">
+      <c r="H7" s="30"/>
+      <c r="I7" s="31"/>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="32"/>
       <c r="B8" s="33"/>
       <c r="C8" s="33"/>
@@ -1726,121 +1744,121 @@
       <c r="E8" s="33"/>
       <c r="F8" s="33"/>
       <c r="G8" s="34"/>
-      <c r="H8" s="35"/>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" thickBot="1"/>
-    <row r="12" spans="1:8" ht="32.25" thickBot="1">
+      <c r="H8" s="34"/>
+      <c r="I8" s="35"/>
+    </row>
+    <row r="12" spans="1:9" ht="15.75">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15.75">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75">
       <c r="A13" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>16</v>
-      </c>
       <c r="C13" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15.75">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.75">
       <c r="A14" s="37" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B14" s="38" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15.75">
-      <c r="A15" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.75">
+      <c r="A15" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
       <c r="E15" s="20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="15.75">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.75">
       <c r="A16" s="10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="16.5" thickBot="1">
+    <row r="17" spans="1:3" ht="15.75">
       <c r="A17" s="10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="16.5" thickBot="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75">
       <c r="A18" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="16.5" thickBot="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75">
       <c r="A19" s="10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="16.5" thickBot="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75">
       <c r="A20" s="10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="16.5" thickBot="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75">
       <c r="A21" s="10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="16.5" thickBot="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75">
       <c r="A22" s="10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B22" s="11">
         <v>1</v>
@@ -1849,20 +1867,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="16.5" thickBot="1">
+    <row r="23" spans="1:3" ht="15.75">
       <c r="A23" s="10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="16.5" thickBot="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75">
       <c r="A24" s="10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B24" s="12">
         <v>59.95</v>
@@ -1871,9 +1889,9 @@
         <v>39.950000000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="16.5" thickBot="1">
+    <row r="25" spans="1:3" ht="15.75">
       <c r="A25" s="10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B25" s="12">
         <v>0</v>
@@ -1882,118 +1900,118 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="16.5" thickBot="1">
+    <row r="26" spans="1:3" ht="15.75">
       <c r="A26" s="10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="173.25">
       <c r="A27" s="10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="150">
       <c r="A28" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B28" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="C28" s="48" t="s">
         <v>51</v>
+      </c>
+      <c r="B28" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="45" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="31.5">
       <c r="A29" s="10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75">
       <c r="A30" s="10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="16.5" thickBot="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75">
       <c r="A31" s="10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="16.5" thickBot="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75">
       <c r="A32" s="10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
     </row>
-    <row r="33" spans="1:3" ht="16.5" thickBot="1">
+    <row r="33" spans="1:3" ht="15.75">
       <c r="A33" s="10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
     </row>
-    <row r="34" spans="1:3" ht="16.5" thickBot="1">
+    <row r="34" spans="1:3" ht="15.75">
       <c r="A34" s="10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
     </row>
-    <row r="35" spans="1:3" ht="16.5" thickBot="1">
+    <row r="35" spans="1:3" ht="15.75">
       <c r="A35" s="10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="16.5" thickBot="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75">
       <c r="A36" s="10" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75">
       <c r="A37" s="10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B37" s="15">
         <v>59.95</v>
@@ -2002,9 +2020,9 @@
         <v>39.950000000000003</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="16.5" thickBot="1">
+    <row r="38" spans="1:3" ht="15.75">
       <c r="A38" s="10" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B38" s="15">
         <v>0</v>
@@ -2013,9 +2031,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="16.5" thickBot="1">
+    <row r="39" spans="1:3" ht="15.75">
       <c r="A39" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B39" s="16">
         <v>3</v>
@@ -2024,107 +2042,107 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="32.25" thickBot="1">
+    <row r="40" spans="1:3" ht="31.5">
       <c r="A40" s="10" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="173.25">
       <c r="A41" s="10" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="150">
       <c r="A42" s="10" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B42" s="36" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C42" s="36" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="165.75" thickBot="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="150">
       <c r="A43" s="10" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B43" s="36" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C43" s="36" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="32.25" thickBot="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="31.5">
       <c r="A44" s="10" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.75">
       <c r="A45" s="10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B45" s="15"/>
       <c r="C45" s="15"/>
     </row>
     <row r="46" spans="1:3" ht="15.75">
       <c r="A46" s="10" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
     </row>
     <row r="47" spans="1:3" ht="15.75">
       <c r="A47" s="10" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15.75">
       <c r="A48" s="10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="16.5" thickBot="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15.75">
       <c r="A49" s="10" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B49" s="15"/>
       <c r="C49" s="12"/>
     </row>
-    <row r="50" spans="1:3" ht="16.5" thickBot="1">
+    <row r="50" spans="1:3" ht="15.75">
       <c r="A50" s="10" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B50" s="11">
         <v>5</v>
@@ -2133,42 +2151,42 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="16.5" thickBot="1">
+    <row r="51" spans="1:3" ht="15.75">
       <c r="A51" s="10" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="16.5" thickBot="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15.75">
       <c r="A52" s="10" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="16.5" thickBot="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15.75">
       <c r="A53" s="10" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="16.5" thickBot="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15.75">
       <c r="A54" s="10" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B54" s="11">
         <v>3</v>
@@ -2179,40 +2197,40 @@
     </row>
     <row r="55" spans="1:3" ht="15.75">
       <c r="A55" s="10" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="15.75">
       <c r="A56" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="B56" s="43">
+        <v>102</v>
+      </c>
+      <c r="B56" s="40">
         <v>59.95</v>
       </c>
-      <c r="C56" s="44">
+      <c r="C56" s="41">
         <v>39.950000000000003</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15.75">
       <c r="A57" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="B57" s="45">
+        <v>103</v>
+      </c>
+      <c r="B57" s="42">
         <v>3.99</v>
       </c>
-      <c r="C57" s="46">
+      <c r="C57" s="43">
         <v>2.99</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="15.75">
       <c r="A58" s="10" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B58" s="11">
         <v>3</v>
@@ -2223,7 +2241,7 @@
     </row>
     <row r="59" spans="1:3" ht="15.75">
       <c r="A59" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -2258,39 +2276,39 @@
   <sheetData>
     <row r="1" spans="1:5" ht="23.25">
       <c r="A1" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="39" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" customHeight="1">
       <c r="A5" s="39" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30" customHeight="1">
       <c r="A6" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30">
       <c r="A7" s="39" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2298,7 +2316,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2306,43 +2324,43 @@
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B11" s="5"/>
     </row>
     <row r="14" spans="1:5" ht="30">
       <c r="A14" s="39" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B14" s="39" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C14" s="39" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D14" s="39" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E14" s="39" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B15" s="4">
         <v>1</v>
@@ -2359,92 +2377,92 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="39" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="30" customHeight="1">
       <c r="A18" s="39" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="39" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="39" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="39" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B21" s="4">
         <v>1</v>
@@ -2461,107 +2479,107 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="39" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="195">
-      <c r="A23" s="42" t="s">
-        <v>138</v>
+      <c r="A23" s="48" t="s">
+        <v>140</v>
       </c>
       <c r="B23" s="39" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C23" s="39" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D23" s="39" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E23" s="39" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="42"/>
+      <c r="A24" s="48"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
     </row>
     <row r="25" spans="1:5" ht="30">
-      <c r="A25" s="42"/>
+      <c r="A25" s="48"/>
       <c r="B25" s="4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="42"/>
+      <c r="A26" s="48"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
     </row>
     <row r="27" spans="1:5" ht="120">
-      <c r="A27" s="42"/>
+      <c r="A27" s="48"/>
       <c r="B27" s="4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="42"/>
+      <c r="A28" s="48"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
     </row>
     <row r="29" spans="1:5" ht="75">
-      <c r="A29" s="42"/>
+      <c r="A29" s="48"/>
       <c r="B29" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="39" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B30" s="4">
         <v>5</v>
@@ -2578,41 +2596,41 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="39" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1">
       <c r="A32" s="39" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="39" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B33" s="4">
         <v>3</v>
@@ -2629,41 +2647,41 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="39" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="39" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="30">
       <c r="A36" s="39" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B36" s="4">
         <v>3</v>
@@ -2679,116 +2697,116 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="45">
-      <c r="A37" s="42" t="s">
-        <v>151</v>
+      <c r="A37" s="48" t="s">
+        <v>153</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="42"/>
+      <c r="A38" s="48"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="42"/>
+      <c r="A39" s="48"/>
       <c r="B39" s="4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A40" s="42"/>
+      <c r="A40" s="48"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="42"/>
+      <c r="A41" s="48"/>
       <c r="B41" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E41" s="4"/>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="39" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="39" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="30">
       <c r="A44" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B45" s="4">
         <v>3</v>
@@ -2805,41 +2823,41 @@
     </row>
     <row r="46" spans="1:5" ht="31.5" customHeight="1">
       <c r="A46" s="39" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="15" customHeight="1">
       <c r="A47" s="39" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="30">
       <c r="A48" s="39" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -2847,69 +2865,69 @@
       <c r="E48" s="4"/>
     </row>
     <row r="49" spans="1:5" ht="15" customHeight="1">
-      <c r="A49" s="42" t="s">
-        <v>167</v>
+      <c r="A49" s="48" t="s">
+        <v>169</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="42"/>
+      <c r="A50" s="48"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="42"/>
+      <c r="A51" s="48"/>
       <c r="B51" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="31.5">
       <c r="A54" s="8" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="45">
       <c r="A56" s="39" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B56" s="39" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C56" s="39" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D56" s="39" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E56" s="39" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B57" s="4">
         <v>1</v>
@@ -2926,75 +2944,75 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="39" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="39" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="39" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B61" s="39" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C61" s="39" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D61" s="39" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E61" s="39" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="39" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B62" s="4">
         <v>1</v>
@@ -3011,102 +3029,102 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="39" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="195">
-      <c r="A64" s="42" t="s">
-        <v>138</v>
+      <c r="A64" s="48" t="s">
+        <v>140</v>
       </c>
       <c r="B64" s="39" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C64" s="39" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D64" s="39" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E64" s="39" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="42"/>
+      <c r="A65" s="48"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
     </row>
     <row r="66" spans="1:5" ht="30">
-      <c r="A66" s="42"/>
+      <c r="A66" s="48"/>
       <c r="B66" s="4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="42"/>
+      <c r="A67" s="48"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
     </row>
     <row r="68" spans="1:5" ht="120">
-      <c r="A68" s="42"/>
+      <c r="A68" s="48"/>
       <c r="B68" s="4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="240">
       <c r="A69" s="39" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="39" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B70" s="4">
         <v>5</v>
@@ -3123,58 +3141,58 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="39" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="39" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="39" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="39" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B74" s="4">
         <v>3</v>
@@ -3191,41 +3209,41 @@
     </row>
     <row r="75" spans="1:5" ht="30">
       <c r="A75" s="39" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="39" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="30">
       <c r="A77" s="39" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B77" s="4">
         <v>3</v>
@@ -3241,98 +3259,98 @@
       </c>
     </row>
     <row r="78" spans="1:5" ht="45">
-      <c r="A78" s="42" t="s">
-        <v>151</v>
+      <c r="A78" s="48" t="s">
+        <v>153</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="42"/>
+      <c r="A79" s="48"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" s="42"/>
+      <c r="A80" s="48"/>
       <c r="B80" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="39" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E81" s="39" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="39" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B82" s="39" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C82" s="39" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D82" s="39" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E82" s="39" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="30">
       <c r="A83" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B84" s="4">
         <v>3</v>
@@ -3349,41 +3367,41 @@
     </row>
     <row r="85" spans="1:5" ht="30">
       <c r="A85" s="39" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="39" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="30">
       <c r="A87" s="39" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -3391,42 +3409,42 @@
       <c r="E87" s="4"/>
     </row>
     <row r="88" spans="1:5" ht="45">
-      <c r="A88" s="42" t="s">
-        <v>167</v>
+      <c r="A88" s="48" t="s">
+        <v>169</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="89" spans="1:5">
-      <c r="A89" s="42"/>
+      <c r="A89" s="48"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
     </row>
     <row r="90" spans="1:5">
-      <c r="A90" s="42"/>
+      <c r="A90" s="48"/>
       <c r="B90" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -3451,6 +3469,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C47EEB8100460B478BDC3BCCBE3D5051" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="829e995fc61fbfa25718206016b29da6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9c6a6306-8d4e-455f-a7d8-70154a0dc4d2" xmlns:ns3="3e63a3be-2d53-41f2-914e-dd0efc332534" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3545440ad2b936a9d10385f8b267d779" ns2:_="" ns3:_="">
     <xsd:import namespace="9c6a6306-8d4e-455f-a7d8-70154a0dc4d2"/>
@@ -3615,23 +3648,8 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C41948E8-BEAC-483F-AC17-BAB5D81A2940}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5957B697-AC7C-49C6-8A6C-5DB7FB51AE34}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3639,5 +3657,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5957B697-AC7C-49C6-8A6C-5DB7FB51AE34}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C41948E8-BEAC-483F-AC17-BAB5D81A2940}"/>
 </file>